--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MASSACHUSETTS_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MASSACHUSETTS_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C10">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C11">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C15">
@@ -722,7 +722,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C27">
@@ -987,7 +987,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C47">
@@ -1013,7 +1013,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C62">
@@ -1218,12 +1218,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C64">
@@ -1249,7 +1249,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C66">
@@ -1288,7 +1288,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C69">
@@ -1301,7 +1301,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C70">
@@ -1314,7 +1314,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C71">
@@ -1340,7 +1340,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C73">
@@ -1360,13 +1360,13 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>0.009538950715421303</v>
+        <v>0.009538950715421305</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C75">
@@ -1418,7 +1418,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C79">
@@ -1475,7 +1475,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C83">
@@ -1495,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>0.009538950715421303</v>
+        <v>0.009538950715421305</v>
       </c>
     </row>
     <row r="85">
@@ -1514,7 +1514,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C86">
@@ -1579,7 +1579,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C91">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C93">
@@ -1623,7 +1623,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C94">
@@ -1649,7 +1649,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C96">
@@ -1688,7 +1688,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C99">
@@ -1701,7 +1701,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C100">
@@ -1714,7 +1714,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C101">
@@ -1766,7 +1766,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C105">
@@ -1836,7 +1836,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C110">
@@ -1849,7 +1849,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C111">
@@ -1875,7 +1875,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C113">
@@ -1932,7 +1932,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C117">
@@ -1971,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C120">
@@ -1984,7 +1984,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C121">
@@ -2023,7 +2023,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C124">
@@ -2036,7 +2036,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C125">
@@ -2062,7 +2062,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C127">
@@ -2088,7 +2088,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C129">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C134">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C136">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C137">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C140">
@@ -2540,7 +2540,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C163">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C172">
@@ -2698,7 +2698,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C174">
@@ -2711,7 +2711,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C175">
@@ -2737,7 +2737,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C177">
@@ -2750,7 +2750,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C178">
@@ -2815,7 +2815,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C183">
@@ -3184,7 +3184,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C211">
@@ -3366,7 +3366,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C225">
@@ -3392,7 +3392,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C227">
@@ -3628,7 +3628,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C244">
@@ -3654,14 +3654,14 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C246">
         <v>6</v>
       </c>
       <c r="D246">
-        <v>0.009538950715421303</v>
+        <v>0.009538950715421305</v>
       </c>
     </row>
     <row r="247">
@@ -3928,7 +3928,7 @@
         <v>6</v>
       </c>
       <c r="D265">
-        <v>0.009538950715421303</v>
+        <v>0.009538950715421305</v>
       </c>
     </row>
     <row r="266">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C266">
@@ -4035,7 +4035,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C273">
@@ -4087,7 +4087,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C277">
@@ -4100,7 +4100,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C278">
@@ -4165,7 +4165,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C283">
@@ -4230,7 +4230,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C288">
@@ -4256,7 +4256,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C290">
@@ -4269,7 +4269,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C291">
@@ -4422,7 +4422,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C302">
@@ -4456,41 +4456,6 @@
       </c>
       <c r="D304">
         <v>1</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MASSACHUSETTS_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MASSACHUSETTS_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Acapetahua</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -720,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -733,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -746,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -759,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -772,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -785,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -798,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -811,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -824,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -837,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -850,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -863,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -876,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -889,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -902,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -915,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -928,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -941,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -954,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -985,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -998,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1234,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1247,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -1273,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1286,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1299,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1312,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Ixtapan Del Oro</t>
@@ -1325,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1338,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1351,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1364,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1377,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1390,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tepotzotlán</t>
@@ -1403,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tianguistenco</t>
@@ -1416,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1429,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1442,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1473,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1486,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1499,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1512,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1525,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1538,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1551,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>León</t>
@@ -1564,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1577,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1590,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1699,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1712,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -1725,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1738,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1751,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1764,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1777,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -1790,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -1803,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1930,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1943,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1956,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1969,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Concepción De Buenos Aires</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -1995,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -2008,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2021,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Ixtlahuacán De Los Membrillos</t>
@@ -2034,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -2047,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -2060,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2073,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -2086,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>San Gabriel</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Teocuitatlán De Corona</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2273,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -2286,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -2299,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2312,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -2325,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2338,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -2351,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2364,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -2377,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Pajacuarán</t>
@@ -2390,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -2403,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -2416,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2429,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2442,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2455,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -2468,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2499,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -2512,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -2525,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2538,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Jonacatepec De Leandro Valle</t>
@@ -2551,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -2564,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2595,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -2608,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2621,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2652,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2683,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -2696,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -2709,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -2722,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -2735,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -2748,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2761,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -2774,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -2787,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>San Andrés Huayápam</t>
@@ -2800,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -2813,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -2826,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>San Ildefonso Villa Alta</t>
@@ -2839,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>San José Tenango</t>
@@ -2852,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -2865,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -2878,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -2891,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -2904,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Santa María Tlahuitoltepec</t>
@@ -2917,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -2930,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -2943,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -2956,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Santiago Zacatepec</t>
@@ -2969,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -2982,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Zapotitlán Lagunas</t>
@@ -2995,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3026,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -3039,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -3052,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -3065,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -3078,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -3091,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -3104,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -3117,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Chignautla</t>
@@ -3130,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -3143,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -3156,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -3169,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3182,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -3195,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -3208,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Juan N. Méndez</t>
@@ -3221,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -3234,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -3247,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3260,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -3273,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>San Felipe Teotlalcingo</t>
@@ -3286,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>San Juan Atenco</t>
@@ -3299,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -3312,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Tenampulco</t>
@@ -3325,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Teotlalco</t>
@@ -3338,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -3351,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -3364,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -3377,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -3390,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -3403,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -3416,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -3429,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -3442,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -3455,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -3468,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -3481,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3512,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -3525,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3556,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3587,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -3600,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3613,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3626,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -3639,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Venado</t>
@@ -3652,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -3665,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3696,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -3709,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -3722,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3753,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -3766,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -3779,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3792,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -3805,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3836,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -3849,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3880,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -3893,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -3906,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -3919,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3950,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Ixtenco</t>
@@ -3963,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -3976,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3989,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -4002,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4033,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Camarón De Tejeda</t>
@@ -4046,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -4059,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -4072,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -4085,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -4098,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -4111,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -4124,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -4137,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -4150,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -4163,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -4176,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -4189,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -4202,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -4215,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -4228,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -4241,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -4254,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -4267,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -4280,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -4293,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -4306,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -4319,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -4332,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -4345,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -4358,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4389,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4420,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -4433,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Total</t>
